--- a/pyPlayGround/FlowChart.xlsx
+++ b/pyPlayGround/FlowChart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\repoGit\pyProjLokal\pyPlayGround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\ProjectPy\pythonProj\pyPlayGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412AF08-FFBE-4059-85EE-9199235EC5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F0C20-558F-48FD-AE52-FB371223DE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45,6 +46,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -61,9 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,13 +94,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>183381</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>14345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>26893</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
@@ -109,8 +118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6888981" y="731521"/>
-          <a:ext cx="1672312" cy="4916245"/>
+          <a:off x="1386706" y="709670"/>
+          <a:ext cx="1659612" cy="4790178"/>
           <a:chOff x="4109923" y="112956"/>
           <a:chExt cx="1672312" cy="4916245"/>
         </a:xfrm>
@@ -669,13 +678,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>326818</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>453113</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>176246</xdr:rowOff>
@@ -693,8 +702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9470818" y="0"/>
-          <a:ext cx="1955095" cy="6272246"/>
+          <a:off x="3946318" y="0"/>
+          <a:ext cx="1932870" cy="6116671"/>
           <a:chOff x="7131030" y="0"/>
           <a:chExt cx="1955095" cy="6272246"/>
         </a:xfrm>
@@ -1846,15 +1855,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1874,17 +1883,8 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1904,17 +1904,8 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1934,17 +1925,8 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1964,17 +1946,8 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1994,17 +1967,8 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2024,17 +1988,8 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2054,17 +2009,8 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2084,17 +2030,8 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2114,17 +2051,8 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2144,17 +2072,8 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2174,17 +2093,8 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2204,17 +2114,8 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2234,17 +2135,8 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2264,17 +2156,8 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2294,17 +2177,8 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2324,17 +2198,8 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2354,17 +2219,8 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2384,17 +2240,8 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2414,17 +2261,8 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2444,17 +2282,8 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2474,17 +2303,8 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2504,17 +2324,8 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2534,17 +2345,8 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2564,17 +2366,8 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2594,17 +2387,8 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2624,17 +2408,8 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2654,17 +2429,8 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2684,17 +2450,8 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2714,17 +2471,8 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2744,17 +2492,8 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2774,17 +2513,8 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2804,17 +2534,8 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2834,17 +2555,8 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2864,17 +2576,8 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2894,17 +2597,8 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2924,18 +2618,683 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE99B9D7-3429-4895-840F-DD6C44E28365}">
+  <dimension ref="A1:W26"/>
+  <sheetViews>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>